--- a/output/ExceptionRecords/no_comments.xlsx
+++ b/output/ExceptionRecords/no_comments.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>Comments</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -591,12 +596,13 @@
       <c r="P2" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>BONDS</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -657,12 +663,13 @@
       <c r="P3" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
         <is>
           <t>BONDS</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -691,6 +698,11 @@
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>BONDS</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -755,40 +767,86 @@
       <c r="P5" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
         <is>
           <t>BONDS</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>New</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2134</v>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="E6" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>210</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DBSSG</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Belongs To FXMM</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -798,7 +856,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57657</v>
+        <v>2145</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" s="2" t="n">
@@ -815,7 +873,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1421</v>
+        <v>1999</v>
       </c>
       <c r="I7" t="n">
         <v>210</v>
@@ -849,12 +907,17 @@
       <c r="P7" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Belongs To FXMM</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>EQD STRUCT</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -883,34 +946,222 @@
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>New</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Old</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>57657</v>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="E9" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1421</v>
+      </c>
+      <c r="I9" t="n">
+        <v>210</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>DBSSG</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" s="2" t="n">
         <v>44120.59492453704</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>EQD STRUCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9807</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1414</v>
+      </c>
+      <c r="I10" t="n">
+        <v>202</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DBSSG</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>FXMM</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" s="2" t="n">
+        <v>44120.59492453704</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>not ours</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>FXMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Old</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6899</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1414</v>
+      </c>
+      <c r="I11" t="n">
+        <v>202</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DBSSG</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>FXMM</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" s="2" t="n">
+        <v>44120.59492453704</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>not ours</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>FXMM</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
